--- a/plano de ação.xlsx
+++ b/plano de ação.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Desktop\Sersor-Vital\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F68EE0-8BF7-4C5C-A642-3685A5AAEC76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="140" windowWidth="19100" windowHeight="7800"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,15 +30,6 @@
     <t>Prazo</t>
   </si>
   <si>
-    <t>Responsáveis</t>
-  </si>
-  <si>
-    <t>prioridade</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>Plano de ação - Sensor Vital</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>modelagem de dados</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>alta</t>
-  </si>
-  <si>
     <t>atualização do site</t>
   </si>
   <si>
@@ -109,13 +100,28 @@
   </si>
   <si>
     <t>não iniciada</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +145,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,13 +161,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,30 +205,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -248,9 +273,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +307,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,9 +359,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,219 +552,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43929</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43929</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.5">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="4">
+        <v>43929</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B7" s="4">
         <v>43929</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>43929</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>43924</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B10" s="4">
+        <v>43943</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43929</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43929</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>114</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43929</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43929</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43943</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="4">
+        <v>43951</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2">
-        <v>114</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -716,24 +779,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
